--- a/db/load/cdisc/sdtm_model/sdtm_1-5.xlsx
+++ b/db/load/cdisc/sdtm_model/sdtm_1-5.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0E106C-A433-F94A-8479-4948E397989E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E73E390-5292-A340-AFFF-819CF4F420D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32040" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40020" yWindow="460" windowWidth="32040" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SEND 1.5 Variables" sheetId="1" r:id="rId1"/>
+    <sheet name="SDTM 1.5" sheetId="1" r:id="rId1"/>
     <sheet name="ReadMe" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7739" uniqueCount="2069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7738" uniqueCount="2069">
   <si>
     <t>All Classes</t>
   </si>
@@ -6340,10 +6340,6 @@
     <t>Domain Prefix</t>
   </si>
   <si>
-    <t>Variable Name 
-(minus domain prefix)</t>
-  </si>
-  <si>
     <t>Variable Name</t>
   </si>
   <si>
@@ -6359,11 +6355,13 @@
     <t>Role</t>
   </si>
   <si>
-    <t>CDISC Notes (for domains)
-Description (for General Classes)</t>
-  </si>
-  <si>
     <t>Core</t>
+  </si>
+  <si>
+    <t>Variable Name (minus domain prefix)</t>
+  </si>
+  <si>
+    <t>CDISC Notes (for domains) Description (for General Classes)</t>
   </si>
 </sst>
 </file>
@@ -6430,7 +6428,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6440,6 +6438,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6482,7 +6486,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -6525,6 +6529,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -7543,8 +7550,8 @@
   <dimension ref="A1:O869"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A813" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A805" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B812" sqref="B812"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8265,29 +8272,29 @@
       <c r="C1" s="8" t="s">
         <v>2060</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="16" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>2061</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>2062</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>2063</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>2064</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>2065</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="16" t="s">
+        <v>2068</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>2066</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>2067</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>2068</v>
       </c>
       <c r="L1" s="9"/>
       <c r="M1" s="10"/>
@@ -34684,8 +34691,8 @@
       <c r="C813" t="s">
         <v>1883</v>
       </c>
-      <c r="D813" t="s">
-        <v>1890</v>
+      <c r="D813">
+        <v>5</v>
       </c>
       <c r="E813" t="s">
         <v>1890</v>
@@ -36775,10 +36782,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>2032</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
